--- a/Main_proj/drug_interaction/DrugBankParse/interaction_sheet.xlsx
+++ b/Main_proj/drug_interaction/DrugBankParse/interaction_sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Abdullah_Elgabry/Desktop/grad_proj/drug_interaction/drug_interaction_website/drug_interaction/DrugBankParse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Abdullah_Elgabry/Downloads/final_Pharma_scope/Pharma_Scope/Main_proj/drug_interaction/DrugBankParse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF751B2-CC5C-7947-8F95-1E6C5E4DF7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A810D3D1-E3D1-B743-A4C6-2492409ADAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{B49CF6DF-1A5F-A640-80C0-D4B3E2BD7709}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
   <si>
     <t>drug_1</t>
   </si>
@@ -154,133 +154,232 @@
     <t>oral Contraceptive</t>
   </si>
   <si>
-    <t>❌ (Major) - GENERALLY AVOID: The risk of bleeding, including major bleeding (intracranial hemorrhage or a decrease in hemoglobin greater than 5 mg/dl) is significantly more likely when oral anticoagulants and glycoprotein IIb/IIIa inhibitors are given together.
+    <t>defibrotide</t>
+  </si>
+  <si>
+    <t>mifepristone</t>
+  </si>
+  <si>
+    <t>allopurinol</t>
+  </si>
+  <si>
+    <t>argatroban</t>
+  </si>
+  <si>
+    <t>betrixaban</t>
+  </si>
+  <si>
+    <t>vitamin e</t>
+  </si>
+  <si>
+    <t>tirofiban</t>
+  </si>
+  <si>
+    <t>cefaclor</t>
+  </si>
+  <si>
+    <t>etodolac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">❌ SEVERITY LEVEL: Major -
+GENERALLY AVOID: Aspirin, even in small doses, may increase the risk of bleeding in patients on oral anticoagulants by inhibiting platelet aggregation, prolonging bleeding time, and inducing gastrointestinal lesions. Analgesic/antipyretic doses of aspirin increase the risk of major bleeding more than low-dose aspirin; however bleeding has also occurred with low-dose aspirin.
+MANAGEMENT: This combination, especially with analgesic/antipyretic aspirin doses, should generally be avoided unless the potential benefit outweighs the risk of bleeding. If concomitant therapy is used for additive anticoagulant effects, monitoring for excessive anticoagulation and overt and occult bleeding is recommended. The INR should be checked frequently and the dosage adjusted accordingly when aspirin is added to an anticoagulant regimen. Be cognizant that bleeding may occur without INR or prothrombin time increases. Patients should be advised to promptly report any signs of bleeding to their physician, including pain, swelling, headache, dizziness, weakness, prolonged bleeding from cuts, vaginal bleeding, nosebleeds, bleeding of gums from brushing, unusual bruising, red or brown urine, or red or black stools. Patients should also be counseled to avoid any other over-the-counter oral or topical salicylate products.
+</t>
+  </si>
+  <si>
+    <t>❌ SEVERITY LEVEL: Major -
+GENERALLY AVOID: The risk of bleeding, including major bleeding (intracranial hemorrhage or a decrease in hemoglobin greater than 5 mg/dl) is significantly more likely when oral anticoagulants and glycoprotein IIb/IIIa inhibitors are given together.
 MANAGEMENT: Some manufacturers of GP IIb/IIIa inhibitors consider their use contraindicated if patients have received oral anticoagulants within 7 days unless the prothrombin time is less than or equal to 1.2 times control. Bleeding precautions should be observed and patients should be closely monitored for clinical and laboratory evidence of adverse effects.</t>
   </si>
   <si>
-    <t>❌ (Major) - MONITOR CLOSELY: Coadministration of acalabrutinib and drugs that interfere with platelet function or coagulation may potentiate the risk of bleeding complications. Serious and fatal hemorrhagic events have been reported during acalabrutinib therapy. In the combined safety database of 1040 patients with hematologic malignancies treated with acalabrutinib monotherapy, major hemorrhage (serious or &gt;= Grade 3 bleeding events or any central nervous system bleeding) occurred in 3.6% of patients, with fatalities occurring in 0.1% of patients. Overall, bleeding events of any grade, including bruising and petechiae, occurred in 46% of patients. The mechanism is not well understood, as bleeding events have occurred in patients both with and without thrombocytopenia. In clinical trials, major hemorrhagic events were experienced by 3% of patients taking acalabrutinib without concurrent antithrombotic agents. The addition of antithrombotic agents increased this percentage to 4.3%. However, patients who required anticoagulation with warfarin or equivalent vitamin K antagonists were excluded from clinical trials.
+    <t>❌  SEVERITY LEVEL:  Major -
+MONITOR CLOSELY: Coadministration of acalabrutinib and drugs that interfere with platelet function or coagulation may potentiate the risk of bleeding complications. Serious and fatal hemorrhagic events have been reported during acalabrutinib therapy. In the combined safety database of 1040 patients with hematologic malignancies treated with acalabrutinib monotherapy, major hemorrhage (serious or &gt;= Grade 3 bleeding events or any central nervous system bleeding) occurred in 3.6% of patients, with fatalities occurring in 0.1% of patients. Overall, bleeding events of any grade, including bruising and petechiae, occurred in 46% of patients. The mechanism is not well understood, as bleeding events have occurred in patients both with and without thrombocytopenia. In clinical trials, major hemorrhagic events were experienced by 3% of patients taking acalabrutinib without concurrent antithrombotic agents. The addition of antithrombotic agents increased this percentage to 4.3%. However, patients who required anticoagulation with warfarin or equivalent vitamin K antagonists were excluded from clinical trials.
 MANAGEMENT: Concomitant use of acalabrutinib with antithrombotic agents or other drugs that increase bleeding risk should be approached with caution. Some authorities recommend avoiding warfarin or other vitamin K antagonists with acalabrutinib due to the absence of clinical data demonstrating the safety of this combination. If coadministration cannot be avoided, close clinical and laboratory monitoring for bleeding complications is advised. Patients should also be counseled to promptly report any signs and symptoms of bleeding to their physician. Refer to the product labeling for guidance on acalabrutinib dosage adjustments in patients with concurrent Grade 3 thrombocytopenia and bleeding.</t>
   </si>
   <si>
-    <t>❌ (Major) - GENERALLY AVOID: Adagrasib may increase the plasma concentrations and adverse effects of sensitive CYP450 2C9, 2D6 or P-glycoprotein (P-gp) substrates. Adagrasib is an inhibitor of CYP450 2C9, 2D6, and P-gp. In pharmacokinetic studies, adagrasib 600 mg twice daily is predicted to increase warfarin (a sensitive CYP450 2C9 substrate) peak plasma concentration (Cmax) and systemic exposure (AUC) by 1.1-fold and 2.9-fold, respectively. Also, adagrasib 600 mg twice daily is predicted to increase dextromethorphan (a sensitive CYP450 2D6 substrate) Cmax and AUC by 1.7-fold and 2.4-fold, respectively. In addition, adagrasib 600 mg twice daily is predicted to increase digoxin (a P-gp substrate) Cmax and AUC by 1.9-fold and 1.5-fold, respectively.
+    <t>❌  SEVERITY LEVEL: Major -
+GENERALLY AVOID: Adagrasib may increase the plasma concentrations and adverse effects of sensitive CYP450 2C9, 2D6 or P-glycoprotein (P-gp) substrates. Adagrasib is an inhibitor of CYP450 2C9, 2D6, and P-gp. In pharmacokinetic studies, adagrasib 600 mg twice daily is predicted to increase warfarin (a sensitive CYP450 2C9 substrate) peak plasma concentration (Cmax) and systemic exposure (AUC) by 1.1-fold and 2.9-fold, respectively. Also, adagrasib 600 mg twice daily is predicted to increase dextromethorphan (a sensitive CYP450 2D6 substrate) Cmax and AUC by 1.7-fold and 2.4-fold, respectively. In addition, adagrasib 600 mg twice daily is predicted to increase digoxin (a P-gp substrate) Cmax and AUC by 1.9-fold and 1.5-fold, respectively.
 MANAGEMENT: Coadministration of adagrasib with drugs that are sensitive substrates of CYP450 2C9, 2D6 or P-gp should generally be avoided.</t>
   </si>
   <si>
-    <t>❌ (Major) - MONITOR CLOSELY: Coadministration of trastuzumab emtansine with anticoagulant or antiplatelet drugs may potentiate the risk of hemorrhagic events associated with these drugs. In clinical trials, fatal cases of hemorrhage occurred in patients receiving trastuzumab emtansine in addition to anticoagulant and antiplatelet therapy.
+    <t>❌ SEVERITY LEVEL: Major -
+MONITOR CLOSELY: Coadministration of trastuzumab emtansine with anticoagulant or antiplatelet drugs may potentiate the risk of hemorrhagic events associated with these drugs. In clinical trials, fatal cases of hemorrhage occurred in patients receiving trastuzumab emtansine in addition to anticoagulant and antiplatelet therapy.
 MANAGEMENT: Caution is recommended and additional monitoring should be considered if trastuzumab emtansine must be used with anticoagulant or antiplatelet drugs. In general, monitoring of platelet counts is recommended prior to each dose of trastuzumab emtansine. If platelet counts decrease to less than 50,000/mm3 (Grade 3 or higher), discontinue trastuzumab emtansine until platelet counts increase to 75,000/mm3 or higher (Grade 1 or less).</t>
   </si>
   <si>
-    <t>❌ (Major) - MONITOR CLOSELY: Some quinolone antibiotics have been reported to potentiate the hypoprothrombinemic effect of warfarin and other coumarin anticoagulants. The exact mechanism is unknown but may involve inhibition of coumarin metabolism and/or depletion of certain clotting factors due to suppression of vitamin K-producing intestinal flora. A retrospective cohort study of acutely ill warfarin patients at a U.S. Veteran's Affairs Medical Center revealed an increased risk and severity of overanticoagulation following initiation of levofloxacin compared to a control agent, terazosin. Specifically, a mean INR increase of 0.85 was observed in the levofloxacin group (n=27), compared to a mean decrease of 0.15 in the terazosin group (n=29). Elevations in INR beyond therapeutic levels were seen in 33% of levofloxacin patients versus 5% of the terazosin patients, and INR elevations beyond 4 were seen in 19% of the levofloxacin patients versus 0% of the terazosin patients (the latter not statistically significant). Similarly, a population-based cohort study focusing on antibiotic use in outpatients treated with phenprocoumon or acenocoumarol at a Netherlands anticoagulant clinic identified norfloxacin use as a risk factor for overanticoagulation (INR greater than or equal to 6), even after adjustment for potential confounding factors. There have also been case reports of primarily elderly patients stabilized on warfarin who developed PT or INR increases and/or bleeding complications following the addition of a quinolone. Increased INR values have generally been observed within 2 to 16 days following initiation of quinolone therapy. Ciprofloxacin, enoxacin, gatifloxacin, levofloxacin, moxifloxacin, nalidixic acid, norfloxacin, ofloxacin, and trovafloxacin have been specifically implicated. Between 1987 and 1997, the U.S. Food and Drug Administration received 66 reported cases of suspected interaction involving ciprofloxacin alone. As of January 2004, Health Canada received 57 reports (levofloxacin 16; gatifloxacin 13; moxifloxacin 12; ciprofloxacin 10; norfloxacin 6), including four deaths involving gatifloxacin (2), ciprofloxacin (1), and levofloxacin (1). However, causality could not be established due to multiple confounding factors. In general, data from clinical studies with various quinolones have not supported a significant, predictable pharmacodynamic or pharmacokinetic interaction with warfarin. However, the potential for interaction in susceptible patients cannot be ruled out. Other influences such as fever, infection, malnutrition, and other concomitant underlying conditions on clotting mechanisms and warfarin pharmacokinetics should also be considered.
+    <t>❌ SEVERITY LEVEL: Major -
+MONITOR CLOSELY: Some quinolone antibiotics have been reported to potentiate the hypoprothrombinemic effect of warfarin and other coumarin anticoagulants. The exact mechanism is unknown but may involve inhibition of coumarin metabolism and/or depletion of certain clotting factors due to suppression of vitamin K-producing intestinal flora. A retrospective cohort study of acutely ill warfarin patients at a U.S. Veteran's Affairs Medical Center revealed an increased risk and severity of overanticoagulation following initiation of levofloxacin compared to a control agent, terazosin. Specifically, a mean INR increase of 0.85 was observed in the levofloxacin group (n=27), compared to a mean decrease of 0.15 in the terazosin group (n=29). Elevations in INR beyond therapeutic levels were seen in 33% of levofloxacin patients versus 5% of the terazosin patients, and INR elevations beyond 4 were seen in 19% of the levofloxacin patients versus 0% of the terazosin patients (the latter not statistically significant). Similarly, a population-based cohort study focusing on antibiotic use in outpatients treated with phenprocoumon or acenocoumarol at a Netherlands anticoagulant clinic identified norfloxacin use as a risk factor for overanticoagulation (INR greater than or equal to 6), even after adjustment for potential confounding factors. There have also been case reports of primarily elderly patients stabilized on warfarin who developed PT or INR increases and/or bleeding complications following the addition of a quinolone. Increased INR values have generally been observed within 2 to 16 days following initiation of quinolone therapy. Ciprofloxacin, enoxacin, gatifloxacin, levofloxacin, moxifloxacin, nalidixic acid, norfloxacin, ofloxacin, and trovafloxacin have been specifically implicated. Between 1987 and 1997, the U.S. Food and Drug Administration received 66 reported cases of suspected interaction involving ciprofloxacin alone. As of January 2004, Health Canada received 57 reports (levofloxacin 16; gatifloxacin 13; moxifloxacin 12; ciprofloxacin 10; norfloxacin 6), including four deaths involving gatifloxacin (2), ciprofloxacin (1), and levofloxacin (1). However, causality could not be established due to multiple confounding factors. In general, data from clinical studies with various quinolones have not supported a significant, predictable pharmacodynamic or pharmacokinetic interaction with warfarin. However, the potential for interaction in susceptible patients cannot be ruled out. Other influences such as fever, infection, malnutrition, and other concomitant underlying conditions on clotting mechanisms and warfarin pharmacokinetics should also be considered.
 MANAGEMENT: Given the potential for clinically significant interaction and even fatality in the occasional, susceptible patient, close monitoring is recommended if a quinolone antibiotic is prescribed during coumarin anticoagulant therapy. The INR should be checked frequently and coumarin dosage adjusted accordingly, particularly following initiation or discontinuation of quinolone therapy in patients who are stabilized on their anticoagulant regimen. Patients should be advised to promptly report any signs of bleeding to their physician, including pain, swelling, headache, dizziness, weakness, prolonged bleeding from cuts, increased menstrual flow, vaginal bleeding, nosebleeds, bleeding of gums from brushing, unusual bleeding or bruising, red or brown urine, or red or black stools. The same precaution may be applicable during therapy with other oral anticoagulants (e.g., indandiones), although clinical data are lacking.</t>
   </si>
   <si>
-    <t>❌ (Major) - MONITOR CLOSELY: Amiodarone may increase the pharmacologic effects of warfarin by inhibiting CYP450 2C9 hepatic metabolism of S-warfarin. Similar effects may also occur with other oral anticoagulants, resulting in significant hypoprothrombinemia and bleeding. When amiodarone is added to an anticoagulant regimen, increased anticoagulant effects may become apparent within one to several weeks and may persist for months after the amiodarone is discontinued. The effects of this interaction are highly variable - while some patients are asymptomatic, serious and life-threatening bleeding complications have been reported in others. Patients who are poor CYP450 2C9 metabolizers may have a higher risk of bleeding and a faster onset of the interaction.
+    <t>❌ SEVERITY LEVEL: Major -
+MONITOR CLOSELY: Amiodarone may increase the pharmacologic effects of warfarin by inhibiting CYP450 2C9 hepatic metabolism of S-warfarin. Similar effects may also occur with other oral anticoagulants, resulting in significant hypoprothrombinemia and bleeding. When amiodarone is added to an anticoagulant regimen, increased anticoagulant effects may become apparent within one to several weeks and may persist for months after the amiodarone is discontinued. The effects of this interaction are highly variable - while some patients are asymptomatic, serious and life-threatening bleeding complications have been reported in others. Patients who are poor CYP450 2C9 metabolizers may have a higher risk of bleeding and a faster onset of the interaction.
 MANAGEMENT: An empiric 30% to 50% reduction in anticoagulant dosage has been recommended, in addition to frequent monitoring of the patient and the prothrombin time or International Normalized Ratio (INR). Patients should be advised to notify their physician promptly if they experience any signs of excessive anticoagulation such as unusual or prolonged bleeding, bruising, vomiting, change in stool or urine color, headache, dizziness, or weakness.</t>
   </si>
   <si>
-    <t>❌ (Major) - MONITOR CLOSELY: Concomitant use of apixaban with other agents that alter hemostasis such as aspirin, nonsteroidal anti-inflammatory drugs (NSAIDs), platelet aggregation inhibitors, other anticoagulants, thrombolytic agents, or drugs that cause thrombocytopenia may increase the risk of bleeding. In patients receiving neuraxial anesthesia or spinal puncture, the risk of developing an epidural or spinal hematoma during apixaban therapy may also be increased by the concomitant use of other drugs that affect coagulation. The development of epidural and spinal hematoma can lead to long-term neurological injury or permanent paralysis.
+    <t>❌ SEVERITY LEVEL: Major -
+MONITOR CLOSELY: Concomitant use of apixaban with other agents that alter hemostasis such as aspirin, nonsteroidal anti-inflammatory drugs (NSAIDs), platelet aggregation inhibitors, other anticoagulants, thrombolytic agents, or drugs that cause thrombocytopenia may increase the risk of bleeding. In patients receiving neuraxial anesthesia or spinal puncture, the risk of developing an epidural or spinal hematoma during apixaban therapy may also be increased by the concomitant use of other drugs that affect coagulation. The development of epidural and spinal hematoma can lead to long-term neurological injury or permanent paralysis.
 MANAGEMENT: Caution is recommended if apixaban must be used with other agents that alter hemostasis. Patients should be monitored for increased anticoagulant effects and bleeding complications. In patients undergoing neuraxial intervention, coadministration of these agents should be approached with caution and only after thorough assessment of risks and benefits. Besides bleeding complications, patients should also be monitored frequently for signs and symptoms of neurologic impairment such as midline back pain, sensory and motor deficits (numbness or weakness in lower limbs), and bowel or bladder dysfunction.</t>
   </si>
   <si>
-    <t>❌ (Major) - ADJUST DOSE: Coadministration with amiodarone may increase serum digoxin concentrations by up to 100%, frequently resulting in clinical toxicity. In children, this percentage may be even higher. Amiodarone has been suggested to increase intestinal transit time, reduce renal clearance and volume of distribution, displace digoxin from protein binding sites, as well as induce hypothyroidism, all of which may contribute to increased serum digoxin levels. In addition, both drugs may have additive bradycardic effects. Torsade de pointes cardiac arrhythmia has been reported. The interaction also has occurred with digitoxin.
+    <t>❌ SEVERITY LEVEL: Major -
+ADJUST DOSE: Coadministration with amiodarone may increase serum digoxin concentrations by up to 100%, frequently resulting in clinical toxicity. In children, this percentage may be even higher. Amiodarone has been suggested to increase intestinal transit time, reduce renal clearance and volume of distribution, displace digoxin from protein binding sites, as well as induce hypothyroidism, all of which may contribute to increased serum digoxin levels. In addition, both drugs may have additive bradycardic effects. Torsade de pointes cardiac arrhythmia has been reported. The interaction also has occurred with digitoxin.
 MANAGEMENT: The need for continued digitalis therapy should be evaluated if amiodarone is prescribed to patients treated with digitalis. Empirical reduction of digitalis dosage by one-third to one-half should be considered in patients who require concomitant treatment with these drugs. Serum digitalis levels should be closely monitored and patients observed for clinical evidence of toxicity. Patients should be advised to seek medical attention if they experience signs of digitalis toxicity such as nausea, anorexia, visual disturbances, slow pulse, or irregular heartbeats.</t>
   </si>
   <si>
-    <t>❌ (Major) -  Combining NSAIDs with beta blockers can potentially diminish the antihypertensive effects of beta blockers. NSAIDs can inhibit the synthesis of prostaglandins, which are involved in maintaining renal blood flow and sodium excretion. When prostaglandin synthesis is inhibited, there can be vasoconstriction of renal blood vessels and reduced glomerular filtration rate, leading to sodium and water retention. This effect can counteract the antihypertensive actions of beta blockers, which work by reducing heart rate and cardiac output.
+    <t>❌ SEVERITY LEVEL: Major - 
+Combining NSAIDs with beta blockers can potentially diminish the antihypertensive effects of beta blockers. NSAIDs can inhibit the synthesis of prostaglandins, which are involved in maintaining renal blood flow and sodium excretion. When prostaglandin synthesis is inhibited, there can be vasoconstriction of renal blood vessels and reduced glomerular filtration rate, leading to sodium and water retention. This effect can counteract the antihypertensive actions of beta blockers, which work by reducing heart rate and cardiac output.
 Furthermore, NSAIDs can increase blood pressure by causing sodium and fluid retention, which is compounded by the impaired renal function when used concomitantly with beta blockers. Additionally, the combination of NSAIDs and beta blockers may increase the risk of renal dysfunction or acute kidney injury, particularly in patients with pre-existing renal impairment or dehydration.</t>
   </si>
   <si>
-    <t>❌ (Major) - Verapamil, a calcium channel blocker, and beta blockers are both commonly prescribed medications for cardiovascular conditions. However, combining them can pose significant risks due to their overlapping effects on the cardiovascular system. Here's a professional reason for why they should not be taken together:
+    <t>❌  SEVERITY LEVEL: Major -
+Verapamil, a calcium channel blocker, and beta blockers are both commonly prescribed medications for cardiovascular conditions. However, combining them can pose significant risks due to their overlapping effects on the cardiovascular system. Here's a professional reason for why they should not be taken together:
 "Verapamil and beta blockers should not be taken concomitantly due to the potential for additive negative chronotropic and inotropic effects. Both verapamil and beta blockers can cause bradycardia (reduced heart rate) and negative inotropy (reduced myocardial contractility) individually. When used together, these effects can be potentiated, leading to excessive cardiac depression, which may result in severe bradycardia, atrioventricular block, or even cardiac arrest. Therefore, concurrent use of verapamil and beta blockers is contraindicated to prevent adverse cardiovascular outcomes."</t>
   </si>
   <si>
-    <t>❌ (Major) - CONTRAINDICATED: Phosphodiesterase-5 (PDE5) inhibitors may potentiate the hypotensive effect of organic nitrates. Severe hypotension, syncope, or myocardial ischemia may result from use of the combination. The mechanism involves peripheral vasodilation secondary to enhanced levels of cyclic guanosine monophosphate (cGMP) in vascular smooth muscle cells, as PDE5 inhibitors prevent degradation of cGMP while nitrates promote its synthesis. Single oral doses of the PDE5 inhibitors sildenafil (100 mg) and vardenafil (20 mg) have produced mean maximum decreases in supine blood pressure (systolic/diastolic) of approximately 8.4/5.5 and 7.0/8.0 mmHg, respectively, compared to placebo. The decrease in blood pressure was most notable approximately 1 to 2 hours after sildenafil dosing and 1 to 4 hours after vardenafil dosing and was additive with that produced by nitrates. A single 200 mg dose of avanafil produced transient decreases in sitting blood pressure of 8.0/3.3 mmHg in healthy volunteers, with maximum decrease observed at 1 hour after dosing. When given with sublingual nitroglycerin 0.4 mg to healthy males, avanafil 200 mg produced decreases from baseline in sitting and standing blood pressure of 8.2/6.4 and 6.9/7.0 mmHg, respectively, relative to placebo. Tadalafil 20 mg administered to healthy male subjects produced no significant difference in supine or standing blood pressure compared to placebo, although the drug did potentiate the hypotensive effect of nitrates at a dosage of 5 to 20 mg.
+    <t>❌ SEVERITY LEVEL: Major -
+CONTRAINDICATED: Phosphodiesterase-5 (PDE5) inhibitors may potentiate the hypotensive effect of organic nitrates. Severe hypotension, syncope, or myocardial ischemia may result from use of the combination. The mechanism involves peripheral vasodilation secondary to enhanced levels of cyclic guanosine monophosphate (cGMP) in vascular smooth muscle cells, as PDE5 inhibitors prevent degradation of cGMP while nitrates promote its synthesis. Single oral doses of the PDE5 inhibitors sildenafil (100 mg) and vardenafil (20 mg) have produced mean maximum decreases in supine blood pressure (systolic/diastolic) of approximately 8.4/5.5 and 7.0/8.0 mmHg, respectively, compared to placebo. The decrease in blood pressure was most notable approximately 1 to 2 hours after sildenafil dosing and 1 to 4 hours after vardenafil dosing and was additive with that produced by nitrates. A single 200 mg dose of avanafil produced transient decreases in sitting blood pressure of 8.0/3.3 mmHg in healthy volunteers, with maximum decrease observed at 1 hour after dosing. When given with sublingual nitroglycerin 0.4 mg to healthy males, avanafil 200 mg produced decreases from baseline in sitting and standing blood pressure of 8.2/6.4 and 6.9/7.0 mmHg, respectively, relative to placebo. Tadalafil 20 mg administered to healthy male subjects produced no significant difference in supine or standing blood pressure compared to placebo, although the drug did potentiate the hypotensive effect of nitrates at a dosage of 5 to 20 mg.
 MANAGEMENT: The use of PDE5 inhibitors in patients receiving organic nitrates or other nitric oxide donors, either regularly or intermittently, is considered contraindicated. A suitable time interval following sildenafil or vardenafil use for the safe administration of nitrates has not been determined. For patients treated with avanafil or tadalafil, at least 12 hours after the last dose of avanafil and 48 hours after the last dose of tadalafil are recommended before nitrate administration, should it be deemed medically necessary in a life-threatening situation. Even then, nitrates should only be administered under close medical supervision with appropriate hemodynamic monitoring. Patients should be advised to seek immediate medical attention if they experience anginal chest pain after taking a PDE5 inhibitor.</t>
   </si>
   <si>
-    <t>❌ (Major) - GENERALLY AVOID: Coadministration with proton pump inhibitors (PPIs) may reduce the cardioprotective effects of clopidogrel. The proposed mechanism is PPI inhibition of the CYP450 2C19-mediated metabolic bioactivation of clopidogrel. This is consistent with studies that reported decreased effectiveness of clopidogrel and poorer clinical outcome in patients who have common genetic polymorphisms of CYP450 2C19 resulting in reduced or absent enzyme activity. In a population-based nested case-control study among patients aged 66 years or older who started clopidogrel after treatment of acute myocardial infarction, concomitant use of PPIs was associated with a significantly increased short-term risk of reinfarction. No association was found with more distant exposure to PPIs or with current exposure to H2-receptor antagonists. In a stratified analysis of the type of PPIs used, pantoprazole was not associated with recurrent myocardial infarction among patients receiving clopidogrel. However, the number of patients receiving pantoprazole in the study was relatively small. Compared with no treatment, the other proton pump inhibitors (lansoprazole, omeprazole, rabeprazole) were collectively associated with a 40% increase in the risk of recurrent myocardial infarction within 90 days of initial hospital discharge. In the Clopidogrel Medco Outcomes Study, a retrospective analysis of 16,690 patients taking clopidogrel for a full year following coronary stenting revealed that patients who also took a PPI (esomeprazole, lansoprazole, omeprazole, or pantoprazole) for an average of nine months experienced a 50% increase in the combined risk of hospitalization for heart attack, stroke, unstable angina, or repeat revascularization. Specifically, use of a PPI was associated with a 70% increase in the risk of heart attack or unstable angina, a 48% increase in the risk of stroke or stroke-like symptoms, and a 35% increase in the need for a repeat coronary procedure. The event rates for the individual PPIs are esomeprazole 24.9%, lansoprazole 24.3%, omeprazole 25.1%, and pantoprazole 29.2%, compared to 17.9% for the no-PPI control group. In a study of 105 consecutive high-risk coronary angioplasty patients receiving aspirin and clopidogrel, PPI users had a significantly lower antiplatelet response to clopidogrel than nonusers as measured by the VASP (vasodilator-stimulated phosphoprotein) phosphorylation assay, which provides an index of platelet reactivity to clopidogrel. No significant differences in antiplatelet response were found for users of statins, ACE inhibitors, angiotensin II receptor antagonists, and beta-blockers compared to nonusers. A subsequent study conducted by the same investigators reported similar results when omeprazole (20 mg/day) or placebo was given for seven days to 140 coronary artery stent patients receiving aspirin and clopidogrel. In contrast, a study of 300 consecutive patients with coronary artery disease undergoing PCI found that esomeprazole or pantoprazole use did not impair the response to clopidogrel as measured by VASP assay or ADP-induced platelet aggregometry. More recent studies have also found no significant effect of dexlansoprazole, lansoprazole, or pantoprazole on the pharmacokinetics or pharmacodynamics of clopidogrel, and that increasing gastric pH did not influence platelet inhibition by clopidogrel.
+    <t>❌ SEVERITY LEVEL: Major - 
+GENERALLY AVOID: Coadministration with proton pump inhibitors (PPIs) may reduce the cardioprotective effects of clopidogrel. The proposed mechanism is PPI inhibition of the CYP450 2C19-mediated metabolic bioactivation of clopidogrel. This is consistent with studies that reported decreased effectiveness of clopidogrel and poorer clinical outcome in patients who have common genetic polymorphisms of CYP450 2C19 resulting in reduced or absent enzyme activity. In a population-based nested case-control study among patients aged 66 years or older who started clopidogrel after treatment of acute myocardial infarction, concomitant use of PPIs was associated with a significantly increased short-term risk of reinfarction. No association was found with more distant exposure to PPIs or with current exposure to H2-receptor antagonists. In a stratified analysis of the type of PPIs used, pantoprazole was not associated with recurrent myocardial infarction among patients receiving clopidogrel. However, the number of patients receiving pantoprazole in the study was relatively small. Compared with no treatment, the other proton pump inhibitors (lansoprazole, omeprazole, rabeprazole) were collectively associated with a 40% increase in the risk of recurrent myocardial infarction within 90 days of initial hospital discharge. In the Clopidogrel Medco Outcomes Study, a retrospective analysis of 16,690 patients taking clopidogrel for a full year following coronary stenting revealed that patients who also took a PPI (esomeprazole, lansoprazole, omeprazole, or pantoprazole) for an average of nine months experienced a 50% increase in the combined risk of hospitalization for heart attack, stroke, unstable angina, or repeat revascularization. Specifically, use of a PPI was associated with a 70% increase in the risk of heart attack or unstable angina, a 48% increase in the risk of stroke or stroke-like symptoms, and a 35% increase in the need for a repeat coronary procedure. The event rates for the individual PPIs are esomeprazole 24.9%, lansoprazole 24.3%, omeprazole 25.1%, and pantoprazole 29.2%, compared to 17.9% for the no-PPI control group. In a study of 105 consecutive high-risk coronary angioplasty patients receiving aspirin and clopidogrel, PPI users had a significantly lower antiplatelet response to clopidogrel than nonusers as measured by the VASP (vasodilator-stimulated phosphoprotein) phosphorylation assay, which provides an index of platelet reactivity to clopidogrel. No significant differences in antiplatelet response were found for users of statins, ACE inhibitors, angiotensin II receptor antagonists, and beta-blockers compared to nonusers. A subsequent study conducted by the same investigators reported similar results when omeprazole (20 mg/day) or placebo was given for seven days to 140 coronary artery stent patients receiving aspirin and clopidogrel. In contrast, a study of 300 consecutive patients with coronary artery disease undergoing PCI found that esomeprazole or pantoprazole use did not impair the response to clopidogrel as measured by VASP assay or ADP-induced platelet aggregometry. More recent studies have also found no significant effect of dexlansoprazole, lansoprazole, or pantoprazole on the pharmacokinetics or pharmacodynamics of clopidogrel, and that increasing gastric pH did not influence platelet inhibition by clopidogrel.
 MANAGEMENT: Until further data are available, empiric use of proton pump inhibitors should preferably be avoided in patients treated with clopidogrel. PPIs should only be considered in high-risk patients such as those receiving dual antiplatelet therapy, those with a history of gastrointestinal bleeding or ulcers, and those receiving concomitant anticoagulant therapy, and then only after thorough assessment of risks versus benefits. If a PPI is required, dexlansoprazole, lansoprazole, or pantoprazole may be safer alternatives. Otherwise, H2-receptor antagonists or antacids should be prescribed whenever possible.</t>
   </si>
   <si>
-    <t>❌ (Major) - Taking sucralfate with antacids can reduce the effectiveness of sucralfate. Sucralfate works by forming a protective barrier over ulcers and erosions in the gastrointestinal tract, promoting healing and providing symptom relief. However, antacids can neutralize stomach acid, which is necessary for the activation of sucralfate. When taken together, the acidic environment required for sucralfate to work optimally may be compromised, leading to decreased adherence of sucralfate to the gastrointestinal mucosa and reduced therapeutic efficacy. Therefore, it is recommended to separate the administration of sucralfate and antacids by at least 30 minutes to 1 hour to ensure optimal therapeutic outcomes.</t>
-  </si>
-  <si>
-    <t>❌ (Major) - Ciprofloxacin is a fluoroquinolone antibiotic commonly used to treat bacterial infections, while iron supplements are often prescribed to address iron deficiency anemia or other conditions associated with low iron levels. The professional reason for avoiding the concomitant use of ciprofloxacin and iron supplements lies in their potential interaction that may compromise the effectiveness of both medications.
+    <t>❌ SEVERITY LEVEL: Major -
+Taking sucralfate with antacids can reduce the effectiveness of sucralfate. Sucralfate works by forming a protective barrier over ulcers and erosions in the gastrointestinal tract, promoting healing and providing symptom relief. However, antacids can neutralize stomach acid, which is necessary for the activation of sucralfate. When taken together, the acidic environment required for sucralfate to work optimally may be compromised, leading to decreased adherence of sucralfate to the gastrointestinal mucosa and reduced therapeutic efficacy. Therefore, it is recommended to separate the administration of sucralfate and antacids by at least 30 minutes to 1 hour to ensure optimal therapeutic outcomes.</t>
+  </si>
+  <si>
+    <t>❌ SEVERITY LEVEL: Major -
+Ciprofloxacin is a fluoroquinolone antibiotic commonly used to treat bacterial infections, while iron supplements are often prescribed to address iron deficiency anemia or other conditions associated with low iron levels. The professional reason for avoiding the concomitant use of ciprofloxacin and iron supplements lies in their potential interaction that may compromise the effectiveness of both medications.
 Ciprofloxacin can form chelation complexes with divalent or trivalent cations, such as iron, magnesium, calcium, and aluminum, leading to reduced absorption of both the antibiotic and the mineral. Iron, when taken with ciprofloxacin, can bind to the medication in the gastrointestinal tract, forming insoluble complexes that are poorly absorbed. Consequently, this interaction may result in decreased blood levels of both ciprofloxacin and iron, potentially compromising the therapeutic efficacy of ciprofloxacin in treating bacterial infections and impeding iron absorption, exacerbating iron deficiency anemia or other iron-related conditions.</t>
   </si>
   <si>
-    <t>❌ (Major) - Ciprofloxacin, a fluoroquinolone antibiotic, exhibits reduced absorption when administered concomitantly with calcium-containing products. This reduction in absorption is primarily due to the formation of insoluble complexes between ciprofloxacin and calcium ions, leading to decreased bioavailability of ciprofloxacin in the bloodstream. Consequently, the therapeutic efficacy of ciprofloxacin may be compromised when taken concurrently with calcium supplements, antacids containing calcium, or calcium-rich foods. Therefore, it is recommended to administer ciprofloxacin at least two hours before or six hours after calcium-containing products to minimize the potential for this interaction and ensure optimal drug absorption and effectiveness.</t>
-  </si>
-  <si>
-    <t>❌ (Major) - The interaction between statins and fluconazole arises due to fluconazole's inhibition of the cytochrome P450 (CYP) enzyme system, particularly the CYP3A4 enzyme, which is responsible for the metabolism of many drugs, including statins. Fluconazole inhibits the activity of CYP3A4, leading to decreased metabolism and clearance of statins. As a result, the plasma concentrations of statins, such as atorvastatin and simvastatin, can significantly increase when taken concomitantly with fluconazole.
+    <t>❌ SEVERITY LEVEL: Major -
+Ciprofloxacin, a fluoroquinolone antibiotic, exhibits reduced absorption when administered concomitantly with calcium-containing products. This reduction in absorption is primarily due to the formation of insoluble complexes between ciprofloxacin and calcium ions, leading to decreased bioavailability of ciprofloxacin in the bloodstream. Consequently, the therapeutic efficacy of ciprofloxacin may be compromised when taken concurrently with calcium supplements, antacids containing calcium, or calcium-rich foods. Therefore, it is recommended to administer ciprofloxacin at least two hours before or six hours after calcium-containing products to minimize the potential for this interaction and ensure optimal drug absorption and effectiveness.</t>
+  </si>
+  <si>
+    <t>❌ SEVERITY LEVEL: Major -
+The interaction between statins and fluconazole arises due to fluconazole's inhibition of the cytochrome P450 (CYP) enzyme system, particularly the CYP3A4 enzyme, which is responsible for the metabolism of many drugs, including statins. Fluconazole inhibits the activity of CYP3A4, leading to decreased metabolism and clearance of statins. As a result, the plasma concentrations of statins, such as atorvastatin and simvastatin, can significantly increase when taken concomitantly with fluconazole.
 The reason for avoiding concomitant use of statins with fluconazole is the increased risk of statin-related adverse effects, particularly myopathy and rhabdomyolysis. Rhabdomyolysis is a severe condition characterized by the breakdown of skeletal muscle tissue, leading to the release of myoglobin into the bloodstream and potentially causing kidney damage or failure. Elevated plasma concentrations of statins due to fluconazole inhibition of CYP3A4 can potentiate the risk of myopathy and rhabdomyolysis.</t>
   </si>
   <si>
-    <t>❌ (Major) - statins and azithromycin should not be taken together is due to the potential risk of statin-induced myopathy, including the rare but serious condition known as rhabdomyolysis.
+    <t>❌ SEVERITY LEVEL: Major -
+statins and azithromycin should not be taken together is due to the potential risk of statin-induced myopathy, including the rare but serious condition known as rhabdomyolysis.
 Azithromycin, a macrolide antibiotic, is known to inhibit the cytochrome P450 enzyme system, specifically the CYP3A4 isoenzyme. This inhibition can lead to decreased metabolism of statins, particularly those metabolized primarily by CYP3A4, such as simvastatin and lovastatin.
 When azithromycin inhibits the metabolism of statins, it can result in elevated statin levels in the bloodstream. Elevated levels of statins increase the risk of myopathy, characterized by muscle pain, weakness, and in severe cases, rhabdomyolysis, which is the breakdown of muscle tissue that can lead to kidney damage and other complications.</t>
   </si>
   <si>
-    <t>❌ (Major) - Fluconazole is a potent inhibitor of the cytochrome P450 enzyme system, particularly the CYP3A4 isoenzyme. Calcium channel blockers (CCBs), such as amlodipine or verapamil, are metabolized by the same enzyme system for clearance from the body. When fluconazole inhibits CYP3A4, it can lead to increased plasma concentrations of calcium channel blockers. This elevation in calcium channel blocker levels can potentiate their pharmacological effects, leading to excessive vasodilation, hypotension, and potential cardiovascular complications such as bradycardia or heart block.</t>
-  </si>
-  <si>
-    <t>❌ (Major) - MONITOR CLOSELY: Coadministration with metronidazole may increase the plasma concentrations and hypoprothrombinemic effect of warfarin. The proposed mechanism is metronidazole inhibition of CYP450 2C9, the isoenzyme responsible for the metabolic clearance of the more active S(-) enantiomer of warfarin. The interaction was associated with significant bleeding and elevation of prothrombin time in two case reports. No data are available for other oral anticoagulants, although at least one other coumarin derivative is known to be metabolized by CYP450 2C9.
+    <t>❌ SEVERITY LEVEL: Major -
+Fluconazole is a potent inhibitor of the cytochrome P450 enzyme system, particularly the CYP3A4 isoenzyme. Calcium channel blockers (CCBs), such as amlodipine or verapamil, are metabolized by the same enzyme system for clearance from the body. When fluconazole inhibits CYP3A4, it can lead to increased plasma concentrations of calcium channel blockers. This elevation in calcium channel blocker levels can potentiate their pharmacological effects, leading to excessive vasodilation, hypotension, and potential cardiovascular complications such as bradycardia or heart block.</t>
+  </si>
+  <si>
+    <t>❌ SEVERITY LEVEL: Major - 
+MONITOR CLOSELY: Coadministration with metronidazole may increase the plasma concentrations and hypoprothrombinemic effect of warfarin. The proposed mechanism is metronidazole inhibition of CYP450 2C9, the isoenzyme responsible for the metabolic clearance of the more active S(-) enantiomer of warfarin. The interaction was associated with significant bleeding and elevation of prothrombin time in two case reports. No data are available for other oral anticoagulants, although at least one other coumarin derivative is known to be metabolized by CYP450 2C9.
 MANAGEMENT: Given the potential for interaction and the high degree of interpatient variability with respect to warfarin metabolism, patients should be closely monitored during concomitant therapy with metronidazole. The INR should be checked frequently and warfarin dosage adjusted accordingly, particularly following initiation or discontinuation of metronidazole in patients who are stabilized on their warfarin regimen. The same precaution may be applicable during therapy with other oral anticoagulants, although clinical data are lacking. Patients should be advised to promptly report any signs of bleeding to their physician, including pain, swelling, headache, dizziness, weakness, prolonged bleeding from cuts, increased menstrual flow, vaginal bleeding, nosebleeds, bleeding of gums from brushing, unusual bleeding or bruising, red or brown urine, or red or black stools.</t>
   </si>
   <si>
-    <t>⛔️ (Moderate) - GENERALLY AVOID: Based on in vitro inhibition data, a single topical application of abametapir lotion may increase plasma concentrations of drugs that are substrates of CYP450 3A4, CYP450 2B6, and CYP450 1A2 isoenzymes and increase their systemic concentrations. The proposed mechanism is high and prolonged systemic exposure to the metabolite abametapir carboxyl, which has been shown to be an in vitro inhibitor of CYP450 3A4, CYP450 2B6, and CYP450 1A2. The mean half-life of abametapir carboxyl in adults is estimated to be 71 hours or longer.
+    <t>❌ SEVERITY LEVEL: Major -
+CONTRAINDICATED: Coadministration of defibrotide with anticoagulants may increase the risk of bleeding. In vitro, defibrotide increased the activity of fibrinolytic enzymes; therefore, it may enhance the pharmacologic effects of antithrombotic agents.
+MANAGEMENT: Concomitant use of defibrotide with systemic anticoagulants (except for routine maintenance or reopening of central venous lines) is considered contraindicated. Anticoagulants should be discontinued prior to initiation of defibrotide. Preferably, defibrotide administration should be delayed until the effects of anticoagulant therapy have subsided. Some authorities recommend avoiding use of anticoagulants within 24 hours of defibrotide administration, or within 12 hours in the case of unfractionated heparin. Patients should be monitored for signs of bleeding during defibrotide therapy. If bleeding develops, defibrotide should be discontinued and treatment/supportive care provided until the bleeding stops.</t>
+  </si>
+  <si>
+    <t>❌ SEVERITY LEVEL: Major -
+CONTRAINDICATED: Concomitant use of anticoagulants may exacerbate mifepristone-induced vaginal bleeding in women. Prolonged, potentially heavy bleeding lasting approximately 9 to 30 days typically follows mifepristone use in termination of pregnancy. Because it is a progesterone receptor antagonist, mifepristone can also promote unopposed endometrial proliferation that may result in endometrium thickening, cystic dilatation of endometrial glands, and vaginal bleeding when used daily to control hyperglycemia secondary to hypercortisolism in patients with endogenous Cushing's syndrome.
+MANAGEMENT: Concurrent anticoagulant therapy is considered a contraindication in the use of mifepristone for pregnancy termination. When used daily to control hyperglycemia secondary to hypercortisolism in patients with endogenous Cushing's syndrome, mifepristone treatment should be administered cautiously in women who are receiving anticoagulant therapy. Patients who experience vaginal bleeding should be referred to a gynecologist for further evaluation.</t>
+  </si>
+  <si>
+    <t>❌ SEVERITY LEVEL: Major -
+MONITOR CLOSELY: Coadministration of direct thrombin inhibitors with other anticoagulants may increase the risk of bleeding complications due to additive or synergistic effects on the clotting cascade.
+MONITOR CLOSELY: Coadministration of direct thrombin inhibitors, particularly argatroban, with a vitamin K antagonist results in prolongation of the prothrombin time (PT) and International Normalized Ratio (INR) beyond that produced by the vitamin K antagonist alone, although there is no additional effect on vitamin K-dependent factor Xa activity. As such, the normal relationship between PT or INR and bleeding risk is altered.
+MANAGEMENT: Caution as well as close clinical and laboratory monitoring of bleeding risk are advised during coadministration of direct thrombin inhibitors and vitamin K antagonists. When converting patients from a direct thrombin inhibitor to a vitamin K antagonist such as warfarin, consider the potential for combined effects on the INR. The relationship between INR on co-therapy and warfarin alone is dependent on both the dose of the thrombin inhibitor and the thromboplastin reagent used. To avoid prothrombotic effects and to ensure continuous anticoagulation when initiating warfarin therapy, an overlap of both treatments is recommended, although the optimal duration of overlap has not been established. Warfarin therapy should be initiated using the expected daily dose, and no loading dose should be given. The INR should be monitored daily during co-therapy until the desired therapeutic range on warfarin alone is reached. Consult current guidelines for transitioning from thrombin inhibitors to warfarin and/or the manufacturer's product labeling for more detailed information.</t>
+  </si>
+  <si>
+    <t>❌ SEVERITY LEVEL: Major -
+MONITOR CLOSELY: Concomitant use of betrixaban with other agents that alter hemostasis such as aspirin, nonsteroidal anti-inflammatory drugs (NSAIDs), platelet aggregation inhibitors, other anticoagulants, thrombolytic agents, or drugs that cause thrombocytopenia may increase the risk of bleeding. In patients receiving neuraxial anesthesia or spinal puncture, the risk of developing an epidural or spinal hematoma during betrixaban therapy may also be increased by the concomitant use of other drugs that affect coagulation. The development of epidural and spinal hematoma can lead to long-term neurological injury or permanent paralysis.
+MANAGEMENT: Caution is recommended if betrixaban must be used with other agents that alter hemostasis. Some authorities consider concomitant treatment with other anticoagulants to be relatively contraindicated except under special circumstances such as switching oral anticoagulant therapy, or when unfractionated heparin is used at doses required to maintain a patent central venous or arterial catheter. Patients should be monitored for increased anticoagulant effects and bleeding complications. In patients undergoing neuraxial intervention, coadministration of these agents should be approached with caution and only after thorough assessment of risks and benefits. Besides bleeding complications, patients should also be monitored frequently for signs and symptoms of neurologic impairment such as midline back pain, sensory and motor deficits (numbness or weakness in lower limbs), and bowel or bladder dysfunction.</t>
+  </si>
+  <si>
+    <t>❌ SEVERITY LEVEL: Major -
+GENERALLY AVOID: Nonsteroidal anti-inflammatory drugs (NSAIDs) may potentiate the hypoprothrombinemic effect and bleeding risk associated with oral anticoagulants. In a one-year observational study of a population of coumarin users, the relative risk of bleeding complications due to concomitant NSAID use was 5.8 compared to coumarin use alone. Some investigators suggest that the risk of hemorrhagic peptic ulcers in particular may be substantially increased, especially in elderly or debilitated patients. A retrospective epidemiologic study of patients aged 65 years or older reported a nearly 13-fold increase in the risk of developing hemorrhagic peptic ulcer disease in concurrent users of oral anticoagulants and NSAIDs compared with nonusers of either drug. Fatalities have been reported. The pharmacologic effects of NSAIDs that contribute to this interaction include gastrointestinal irritation, prolongation of prothrombin time, and inhibition of platelet adhesion and aggregation. In addition, various NSAIDs have also been shown to alter the pharmacokinetics of warfarin and other oral anticoagulants, resulting in increased INR or prothrombin time. However, some studies failed to demonstrate any evidence of an interaction.
+MANAGEMENT: NSAIDs should be administered with oral anticoagulants only if benefit outweighs risk. The INR should be checked frequently and oral anticoagulant dosage adjusted accordingly, particularly following initiation or discontinuation of NSAIDs in patients who are stabilized on their anticoagulant regimen. Patients should be advised to promptly report any signs of unusual bleeding or bruising to their physician, including pain, swelling, headache, dizziness, weakness, prolonged bleeding from cuts, increased menstrual flow, vaginal bleeding, nosebleeds, bleeding of gums from brushing, red or brown urine, or red or black stools. Salicylates (except aspirin) appear to have less effect on coagulation and may be preferable in patients treated with oral anticoagulants. Nevertheless, caution is advised and close monitoring for gastrointestinal bleeding is recommended, particularly in elderly or debilitated patients.</t>
+  </si>
+  <si>
+    <t>⛔️ SEVERITY LEVEL:  Moderate -
+GENERALLY AVOID: Based on in vitro inhibition data, a single topical application of abametapir lotion may increase plasma concentrations of drugs that are substrates of CYP450 3A4, CYP450 2B6, and CYP450 1A2 isoenzymes and increase their systemic concentrations. The proposed mechanism is high and prolonged systemic exposure to the metabolite abametapir carboxyl, which has been shown to be an in vitro inhibitor of CYP450 3A4, CYP450 2B6, and CYP450 1A2. The mean half-life of abametapir carboxyl in adults is estimated to be 71 hours or longer.
 MANAGEMENT: Use of CYP450 3A4, CYP450 2B6, and CYP450 1A2 substrates should generally be avoided within 2 weeks after topical application of abametapir lotion. If this is not feasible, the manufacturer recommends avoiding use of abametapir lotion. If abametapir is used, monitor for increased toxicity of the CYP450 3A4, CYP450 2B6, and/or CYP450 1A2 substrate.</t>
   </si>
   <si>
-    <t>⛔️ (Moderate) - MONITOR: Acetaminophen (APAP) may potentiate the hypoprothrombinemic effect of warfarin and other vitamin K antagonists, although data are somewhat conflicting and the precise mechanism of interaction has not been established. A toxic metabolite of APAP is thought to be involved by interfering with vitamin K-dependent clotting factors. The interaction has generally been associated with prolonged ingestion of relatively high APAP dosages (greater than 1.3 g/day continuously for greater than 1 week) but not with brief, intermittent exposures of average doses. Reported increases in prothrombin time or INR from most studies were often small but statistically significant, although there have been isolated case reports citing bleeding episodes and clinically significant alterations in coagulation parameters. In contrast, one retrospective study found no significant effect of APAP 2000 to 2500 mg/day on the anticoagulant effect of phenprocoumon, and another study reported no effect of APAP 4 g/day for 2 weeks on single-dose warfarin pharmacokinetics and pharmacodynamics in healthy volunteers.
+    <t>⛔️  SEVERITY LEVEL:  Moderate - 
+ MONITOR: Acetaminophen (APAP) may potentiate the hypoprothrombinemic effect of warfarin and other vitamin K antagonists, although data are somewhat conflicting and the precise mechanism of interaction has not been established. A toxic metabolite of APAP is thought to be involved by interfering with vitamin K-dependent clotting factors. The interaction has generally been associated with prolonged ingestion of relatively high APAP dosages (greater than 1.3 g/day continuously for greater than 1 week) but not with brief, intermittent exposures of average doses. Reported increases in prothrombin time or INR from most studies were often small but statistically significant, although there have been isolated case reports citing bleeding episodes and clinically significant alterations in coagulation parameters. In contrast, one retrospective study found no significant effect of APAP 2000 to 2500 mg/day on the anticoagulant effect of phenprocoumon, and another study reported no effect of APAP 4 g/day for 2 weeks on single-dose warfarin pharmacokinetics and pharmacodynamics in healthy volunteers.
 MANAGEMENT: Due to the lack of safer alternatives, acetaminophen is considered the analgesic and antipyretic drug of choice for patients receiving warfarin and similar anticoagulants. However, caution is recommended during concomitant therapy, particularly if high dosages of APAP are used continuously for more than a few days, or in patients with risk factors such as ethanol consumption, old age, and malnutrition. Closer monitoring of INR may be advisable. Patients should be advised to promptly report any signs of bleeding to their physician, including pain, swelling, headache, dizziness, weakness, prolonged bleeding from cuts, increased menstrual flow, vaginal bleeding, nosebleeds, bleeding of gums from brushing, unusual bleeding or bruising, red or brown urine, or red or black stools.</t>
   </si>
   <si>
-    <t>⛔️ (Moderate) - MONITOR: Plasma concentrations of drugs that are CYP450 substrates may decrease following the initiation of interleukin (IL) inhibitors, tumor necrosis factor (TNF) blockers, or interferon (IFN) inhibitors in patients with chronic inflammatory diseases. Because the formation of hepatic CYP450 enzymes is down-regulated during infection and chronic inflammation by increased levels of certain cytokines (e.g., interleukins-1, -6, and -10; tumor necrosis factor alpha; interferons), treatment targeting these cytokines may restore or normalize CYP450 enzyme levels resulting in increased metabolism of these drugs. In vitro studies showed that tocilizumab, an IL-6 inhibitor, has the potential to impact expression of various hepatic microsomal enzymes including CYP450 1A2, 2B6, 2C9, 2C19, 2D6, and 3A4. Its effects on CYP450 2C8 or transporters is unknown. In vivo studies with omeprazole (a substrate of CYP450 2C19 and 3A4) and simvastatin (a substrate of CYP450 3A4 and OATP 1B1) showed decreases of up to 28% and 57% in systemic exposure, respectively, one week following a single dose of tocilizumab. Likewise, simvastatin and simvastatin acid exposures decreased by 45% and 36%, respectively, in 17 patients with rheumatoid arthritis one week following a single 200 mg subcutaneous dose of sarilumab, another IL-6 inhibitor. A role for other interleukins such as IL-12, IL-17A, or IL-23 in the regulation of CYP450 enzymes has not been established, and it is not known whether antagonists of these interleukins would similarly affect CYP450 metabolism. Risankizumab and tildrakizumab, both IL-23 antagonists, demonstrated no clinically significant effects when tested with CYP450 probe substrates such as caffeine (1A2), warfarin (2C9), omeprazole (2C19), dextromethorphan (2D6), metoprolol (2D6), and midazolam (3A4) in study subjects with plaque psoriasis.
+    <t>⛔️  SEVERITY LEVEL: Moderate -
+MONITOR: Plasma concentrations of drugs that are CYP450 substrates may decrease following the initiation of interleukin (IL) inhibitors, tumor necrosis factor (TNF) blockers, or interferon (IFN) inhibitors in patients with chronic inflammatory diseases. Because the formation of hepatic CYP450 enzymes is down-regulated during infection and chronic inflammation by increased levels of certain cytokines (e.g., interleukins-1, -6, and -10; tumor necrosis factor alpha; interferons), treatment targeting these cytokines may restore or normalize CYP450 enzyme levels resulting in increased metabolism of these drugs. In vitro studies showed that tocilizumab, an IL-6 inhibitor, has the potential to impact expression of various hepatic microsomal enzymes including CYP450 1A2, 2B6, 2C9, 2C19, 2D6, and 3A4. Its effects on CYP450 2C8 or transporters is unknown. In vivo studies with omeprazole (a substrate of CYP450 2C19 and 3A4) and simvastatin (a substrate of CYP450 3A4 and OATP 1B1) showed decreases of up to 28% and 57% in systemic exposure, respectively, one week following a single dose of tocilizumab. Likewise, simvastatin and simvastatin acid exposures decreased by 45% and 36%, respectively, in 17 patients with rheumatoid arthritis one week following a single 200 mg subcutaneous dose of sarilumab, another IL-6 inhibitor. A role for other interleukins such as IL-12, IL-17A, or IL-23 in the regulation of CYP450 enzymes has not been established, and it is not known whether antagonists of these interleukins would similarly affect CYP450 metabolism. Risankizumab and tildrakizumab, both IL-23 antagonists, demonstrated no clinically significant effects when tested with CYP450 probe substrates such as caffeine (1A2), warfarin (2C9), omeprazole (2C19), dextromethorphan (2D6), metoprolol (2D6), and midazolam (3A4) in study subjects with plaque psoriasis.
 MANAGEMENT: Caution is advised when treatments targeting cytokines such as interleukins, tumor necrosis factors, or interferons are prescribed to patients receiving concomitant drugs that are CYP450 substrates, particularly those with narrow therapeutic ranges (e.g., antiarrhythmics, anticonvulsants, immunosuppressants, theophylline) or sensitive substrates where decreases in plasma levels may be significant or undesirable (e.g., oral contraceptives, statins, benzodiazepines, opioids). Clinical and/or laboratory monitoring should be considered following the initiation or withdrawal of such treatments, and the dosage(s) of the CYP450 substrate(s) adjusted accordingly. Clinicians should note that the effects of IL inhibitors, TNF blockers, and IFN inhibitors on CYP450 activities may persist for several weeks after stopping therapy.</t>
   </si>
   <si>
-    <t>⛔️ (Moderate) - MONITOR: Chronic administration of antacids may reduce serum salicylate concentrations in patients receiving large doses of aspirin or other salicylates. The mechanism involves reduction in salicylate renal tubular reabsorption due to urinary alkalinization by antacids, resulting in increased renal salicylate clearance. In three children treated with large doses of aspirin for rheumatic fever, serum salicylate levels declined 30% to 70% during coadministration with a magnesium and aluminum hydroxide antacid. Other studies have found similar, albeit less dramatic results. Antacids reportedly have no effect on the oral bioavailability of aspirin in healthy adults. However, administration of antacids containing either aluminum and magnesium hydroxide or calcium carbonate two hours before aspirin dosing led to reduced absorption of aspirin in uremic patients.
+    <t>⛔️ SEVERITY LEVEL: Moderate -
+MONITOR: Chronic administration of antacids may reduce serum salicylate concentrations in patients receiving large doses of aspirin or other salicylates. The mechanism involves reduction in salicylate renal tubular reabsorption due to urinary alkalinization by antacids, resulting in increased renal salicylate clearance. In three children treated with large doses of aspirin for rheumatic fever, serum salicylate levels declined 30% to 70% during coadministration with a magnesium and aluminum hydroxide antacid. Other studies have found similar, albeit less dramatic results. Antacids reportedly have no effect on the oral bioavailability of aspirin in healthy adults. However, administration of antacids containing either aluminum and magnesium hydroxide or calcium carbonate two hours before aspirin dosing led to reduced absorption of aspirin in uremic patients.
 MANAGEMENT: Patients treated chronically with antacids (or oral medications that contain antacids such as didanosine buffered tablets or pediatric oral solution) and large doses of salicylates (i.e. 3 g/day or more) should be monitored for potentially diminished or inadequate analgesic and anti-inflammatory effects, and the salicylate dosage adjusted if necessary.</t>
   </si>
   <si>
-    <t>⛔️ (Moderate) - ADJUST DOSE: Verapamil increases digoxin levels significantly in most patients. Verapamil decreases renal and extrarenal clearance of digoxin. Serum digoxin levels may increase by 50% to 75% during the first week of concomitant verapamil therapy. Increases may be larger in patients with hepatic cirrhosis. Digoxin and verapamil have additive effects in slowing AV conduction. In clinical trials with digitalized patients with atrial fibrillation or atrial flutter, 15% of patients developed ventricular rates of less than 50/min and 5% developed asymptomatic hypotension.
+    <t>⛔️  SEVERITY LEVEL: Moderate - 
+ADJUST DOSE: Verapamil increases digoxin levels significantly in most patients. Verapamil decreases renal and extrarenal clearance of digoxin. Serum digoxin levels may increase by 50% to 75% during the first week of concomitant verapamil therapy. Increases may be larger in patients with hepatic cirrhosis. Digoxin and verapamil have additive effects in slowing AV conduction. In clinical trials with digitalized patients with atrial fibrillation or atrial flutter, 15% of patients developed ventricular rates of less than 50/min and 5% developed asymptomatic hypotension.
 MANAGEMENT: If verapamil and digoxin are used together to control a supraventricular tachyarrhythmia, the dosage of each drug may have to be reduced. Despite the possible negative inotropic effects of verapamil, digoxin dosage probably will not have to be increased when a patient with congestive heart failure is given verapamil. Increased digoxin concentrations may offset the negative inotropic effects of verapamil. Patients should be closely monitored for clinical and laboratory evidence of digoxin safety and efficacy while taking verapamil and evaluated for underdigitalization when verapamil is discontinued. Patients should be advised to notify their physicians if they experience signs of toxicity such as nausea, anorexia, visual changes, slow pulse, or irregular heartbeats. Calcium channel blockers such as felodipine, or amlodipine, isradipine, and nicardipine appear to affect digoxin levels to a lesser extent or not at all and may be considered as alternatives.</t>
   </si>
   <si>
-    <t>⛔️ (Moderate) - GENERALLY AVOID: Limited clinical data have suggested that coadministration of metronidazole and mebendazole may be associated with Stevens-Johnson syndrome/toxic epidermal necrolysis. The mechanism is unknown.
+    <t>⛔️ SEVERITY LEVEL:  Moderate - 
+GENERALLY AVOID: Limited clinical data have suggested that coadministration of metronidazole and mebendazole may be associated with Stevens-Johnson syndrome/toxic epidermal necrolysis. The mechanism is unknown.
 MANAGEMENT: It is recommended that concomitant use of mebendazole and metronidazole should be avoided.</t>
   </si>
   <si>
-    <t>⛔️ (Moderate) - MONITOR: The hypoglycemic effect of insulin may be potentiated by certain drugs, including ACE inhibitors, angiotensin receptor blockers (ARBs), 4-aminoquinolines, amylin analogs, anabolic steroids, fibrates, monoamine oxidase inhibitors (MAOIs, including linezolid), salicylates, selective serotonin reuptake inhibitors (SSRIs), sulfonamides, disopyramide, propoxyphene, quinidine, quinine, and ginseng. These drugs may increase the risk of hypoglycemia by enhancing insulin sensitivity (ACE inhibitors, ARBs, fibrates, ginseng); stimulating insulin secretion (salicylates, disopyramide, pentoxifylline, propoxyphene, quinidine, quinine, MAOIs, ginseng); decreasing insulin clearance and resistance (4-aminoquinolines); increasing peripheral glucose utilization (SSRIs, insulin-like growth factor); inhibiting gluconeogenesis (SSRIs, MAOIs, insulin-like growth factor); slowing the rate of gastric emptying (amylin analogs); and/or suppressing postprandial glucagon secretion (amylin analogs). Clinical hypoglycemia has been reported during use of some of these agents alone or with insulin and/or insulin secretagogues. Use of SSRIs has also been associated with loss of awareness of hypoglycemia in isolated cases.
+    <t>⛔️  SEVERITY LEVEL: Moderate -
+MONITOR: The hypoglycemic effect of insulin may be potentiated by certain drugs, including ACE inhibitors, angiotensin receptor blockers (ARBs), 4-aminoquinolines, amylin analogs, anabolic steroids, fibrates, monoamine oxidase inhibitors (MAOIs, including linezolid), salicylates, selective serotonin reuptake inhibitors (SSRIs), sulfonamides, disopyramide, propoxyphene, quinidine, quinine, and ginseng. These drugs may increase the risk of hypoglycemia by enhancing insulin sensitivity (ACE inhibitors, ARBs, fibrates, ginseng); stimulating insulin secretion (salicylates, disopyramide, pentoxifylline, propoxyphene, quinidine, quinine, MAOIs, ginseng); decreasing insulin clearance and resistance (4-aminoquinolines); increasing peripheral glucose utilization (SSRIs, insulin-like growth factor); inhibiting gluconeogenesis (SSRIs, MAOIs, insulin-like growth factor); slowing the rate of gastric emptying (amylin analogs); and/or suppressing postprandial glucagon secretion (amylin analogs). Clinical hypoglycemia has been reported during use of some of these agents alone or with insulin and/or insulin secretagogues. Use of SSRIs has also been associated with loss of awareness of hypoglycemia in isolated cases.
 MANAGEMENT: Close monitoring for the development of hypoglycemia is recommended if these drugs are coadministered with insulin, particularly in patients with advanced age and/or renal impairment. The insulin dosage may require adjustment if an interaction is suspected. Patients should be apprised of the signs and symptoms of hypoglycemia (e.g., headache, dizziness, drowsiness, nausea, hunger, tremor, weakness, sweating, palpitations), how to treat it, and to contact their physician if it occurs. Patients should be observed for loss of glycemic control when these drugs are withdrawn.</t>
   </si>
   <si>
-    <t>⛔️ (Moderate) - MONITOR: Penicillins may occasionally potentiate the risk of bleeding in patients treated with oral anticoagulants. The exact mechanism of interaction is unknown but may involve penicillin inhibition of platelet aggregation. In one study, defective platelet aggregation occurred with predictability in patients receiving penicillin G 24 million units/day, ampicillin 300 mg/kg/day, and methicillin 300 mg/kg/day. Other penicillins such as nafcillin, piperacillin, and ticarcillin have also been found to affect platelet function, and benzylpenicillin and carbenicillin have been reported to increase bleeding times and cause bleeding in the absence of an anticoagulant. There have been case reports describing increases in prothrombin time and INR as well as spontaneous bruising and bleeding in anticoagulated patients following initiation or completion of penicillin therapy. Although most cases have involved large, intravenous doses of some penicillins (e.g., carbenicillin, penicillin G, ticarcillin), the interaction has also been reported with regular, oral doses of amoxicillin and amoxicillin-clavulanate. In fact, a case-control study found amoxicillin-clavulanate to be one of only two medications to significantly increase the risk of overanticoagulation in previously stable outpatients treated with phenprocoumon or acenocoumarol. In that study, 300 outpatients at a Netherlands anticoagulant clinic who presented with an INR value greater than or equal to 6.0 (median value 6.8) were compared with 302 randomly selected matched controls with INR values within the target range (median value 3.2), and changes in the use of 87 potentially interacting drugs or drug classes in the four weeks prior to the index day were identified and analyzed. A course of amoxicillin-clavulanate increased the risk of overanticoagulation even after adjustment for potential confounding factors, particularly in patients treated with acenocoumarol. A follow-up study focusing on antibiotic use in outpatients treated with phenprocoumon or acenocoumarol at a different Netherlands anticoagulant clinic also identified amoxicillin use as a risk factor for overanticoagulation, with the relative risk most strongly increased four days or more after start of the antibiotic.
+    <t>⛔️ SEVERITY LEVEL: Moderate -
+MONITOR: Penicillins may occasionally potentiate the risk of bleeding in patients treated with oral anticoagulants. The exact mechanism of interaction is unknown but may involve penicillin inhibition of platelet aggregation. In one study, defective platelet aggregation occurred with predictability in patients receiving penicillin G 24 million units/day, ampicillin 300 mg/kg/day, and methicillin 300 mg/kg/day. Other penicillins such as nafcillin, piperacillin, and ticarcillin have also been found to affect platelet function, and benzylpenicillin and carbenicillin have been reported to increase bleeding times and cause bleeding in the absence of an anticoagulant. There have been case reports describing increases in prothrombin time and INR as well as spontaneous bruising and bleeding in anticoagulated patients following initiation or completion of penicillin therapy. Although most cases have involved large, intravenous doses of some penicillins (e.g., carbenicillin, penicillin G, ticarcillin), the interaction has also been reported with regular, oral doses of amoxicillin and amoxicillin-clavulanate. In fact, a case-control study found amoxicillin-clavulanate to be one of only two medications to significantly increase the risk of overanticoagulation in previously stable outpatients treated with phenprocoumon or acenocoumarol. In that study, 300 outpatients at a Netherlands anticoagulant clinic who presented with an INR value greater than or equal to 6.0 (median value 6.8) were compared with 302 randomly selected matched controls with INR values within the target range (median value 3.2), and changes in the use of 87 potentially interacting drugs or drug classes in the four weeks prior to the index day were identified and analyzed. A course of amoxicillin-clavulanate increased the risk of overanticoagulation even after adjustment for potential confounding factors, particularly in patients treated with acenocoumarol. A follow-up study focusing on antibiotic use in outpatients treated with phenprocoumon or acenocoumarol at a different Netherlands anticoagulant clinic also identified amoxicillin use as a risk factor for overanticoagulation, with the relative risk most strongly increased four days or more after start of the antibiotic.
 MANAGEMENT: Caution is recommended if a penicillin is prescribed during oral anticoagulant therapy, especially in the elderly and patients with uremia or hepatic impairment. The INR should be checked frequently and anticoagulant dosage adjusted accordingly, particularly following initiation or discontinuation of penicillin therapy in patients who are stabilized on their anticoagulant regimen. Patients should be advised to promptly report any signs of bleeding to their doctor, including pain, swelling, headache, dizziness, weakness, prolonged bleeding from cuts, increased menstrual flow, vaginal bleeding, nosebleeds, bleeding of gums from brushing, unusual bleeding or bruising, red or brown urine, or red or black stools.</t>
   </si>
   <si>
-    <t>⛔️ (Moderate) - Taking penicillins, such as amoxicillin or ampicillin, concurrently with oral contraceptives (birth control pills) can potentially reduce the effectiveness of the contraceptives. The professional reason behind this interaction is related to the mechanism of action of both medications.
+    <t>⛔️  SEVERITY LEVEL: Moderate - 
+Taking penicillins, such as amoxicillin or ampicillin, concurrently with oral contraceptives (birth control pills) can potentially reduce the effectiveness of the contraceptives. The professional reason behind this interaction is related to the mechanism of action of both medications.
 Penicillins are antibiotics that can disrupt the normal bacterial flora in the gastrointestinal tract. This disruption may lead to alterations in the enterohepatic recirculation of estrogen, a key component of many oral contraceptive pills. Estrogen is metabolized in the liver and then excreted into the bile, where it can be reabsorbed into the bloodstream via the enterohepatic circulation. However, disruptions in this process caused by penicillin antibiotics can reduce the reabsorption of estrogen, thereby diminishing its systemic levels.
 As a result, decreased levels of estrogen can reduce the contraceptive efficacy of oral contraceptives, potentially increasing the risk of unintended pregnancy. Therefore, it is advisable for individuals using oral contraceptives to use additional or alternative methods of contraception while taking penicillin antibiotics and for a certain period afterward to ensure continued contraceptive protection. It's essential for healthcare providers to inform patients about this interaction and discuss appropriate contraceptive measures during antibiotic therapy to prevent unintended pregnancies.</t>
   </si>
   <si>
-    <t>❗️(Minor) - Limited data suggest that the anticoagulant effect of warfarin may be increased in patients also receiving acarbose. The International Normalization Ratio (INR) may increase out of the therapeutic range. The mechanism is not known, but may be related to increased absorption of warfarin. This interaction may occur with other oral anticoagulants although data is lacking. The clinician may consider closer INR and clinical monitoring in patients starting or stopping acarbose therapy while also receiving oral anticoagulants. The dose of the oral anticoagulant may need to be adjusted. Patients should be advised to promptly report any signs of bleeding to their physician, including pain, swelling, headache, dizziness, weakness, prolonged bleeding from cuts, increased menstrual flow, vaginal bleeding, nosebleeds, bleeding of gums from brushing, unusual bleeding or bruising, red or brown urine, or red or black stools.</t>
-  </si>
-  <si>
-    <t>❗️(Minor) - Salicylates in anti-inflammatory dosages may blunt the diuretic and natriuretic response to loop diuretics. The interaction has been demonstrated in patients with ascites secondary to liver cirrhosis and in normal volunteers. Investigators theorize that salicylates may inhibit the renal effects of loop diuretics that are mediated by prostaglandins, including increases in sodium excretion, renal blood flow, and plasma renin activity. Since renal prostaglandins are believed to play a major role in the maintenance of renal blood flow and glomerular filtration rate in cirrhotics with ascites, the interaction may be particularly important in this population. No clinical interventions are generally required, but the possibility of a potential interaction should be considered in patients with ascites treated with a loop diuretic and salicylate or salicylate-related product.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">❌ (Major) - GENERALLY AVOID: Aspirin, even in small doses, may increase the risk of bleeding in patients on oral anticoagulants by inhibiting platelet aggregation, prolonging bleeding time, and inducing gastrointestinal lesions. Analgesic/antipyretic doses of aspirin increase the risk of major bleeding more than low-dose aspirin; however bleeding has also occurred with low-dose aspirin.
-MANAGEMENT: This combination, especially with analgesic/antipyretic aspirin doses, should generally be avoided unless the potential benefit outweighs the risk of bleeding. If concomitant therapy is used for additive anticoagulant effects, monitoring for excessive anticoagulation and overt and occult bleeding is recommended. The INR should be checked frequently and the dosage adjusted accordingly when aspirin is added to an anticoagulant regimen. Be cognizant that bleeding may occur without INR or prothrombin time increases. Patients should be advised to promptly report any signs of bleeding to their physician, including pain, swelling, headache, dizziness, weakness, prolonged bleeding from cuts, vaginal bleeding, nosebleeds, bleeding of gums from brushing, unusual bruising, red or brown urine, or red or black stools. Patients should also be counseled to avoid any other over-the-counter oral or topical salicylate products.
-</t>
+    <t>⛔️ SEVERITY LEVEL:  Moderate -
+MONITOR: Allopurinol may inhibit the metabolism of warfarin, possibly enhancing its anticoagulant effect. Allopurinol may interact in a similar manner with other oral anticoagulants.
+MANAGEMENT: Patients on concomitant therapy should be monitored for excessive anticoagulation. The INR should be checked frequently and dosage adjusted accordingly when allopurinol is added to an anticoagulant regimen. Patients should be advised to promptly report any signs of bleeding to their physician, including pain, swelling, headache, dizziness, weakness, prolonged bleeding from cuts, increased menstrual flow, vaginal bleeding, nosebleeds, bleeding of gums from brushing, unusual bleeding or bruising, red or brown urine, or red or black stools.</t>
+  </si>
+  <si>
+    <t>⛔️ SEVERITY LEVEL:  Moderate -
+MONITOR: Vitamin E may potentiate the effects of anticoagulants and platelet inhibitors. Vitamin E is thought to inhibit the oxidation of reduced vitamin K and interfere with the functions of vitamin K-dependent clotting factors. These effects appear to be dose-dependent and greater in individuals with preexisting vitamin K deficiency. In one study, administration of vitamin E 42 units/day for one month increased the hypoprothrombinemic effect of a single dose of dicumarol in 3 healthy volunteers, as demonstrated by a decrease in prothrombin activity from 52% to 33% thirty-six hours postdose. The interaction was also suspected in a patient who developed ecchymoses and hematuria following two months of vitamin E supplementation at a dosage of 800 to 1200 units/day while taking warfarin. In contrast, two studies found no significant effect of vitamin E on the hypoprothrombinemic effect of chronic warfarin therapy when administered at relatively high dosages (800 or 1200 units/day) to 21 subjects for one month or at low dosages (100 or 400 units/day) to 12 subjects for four weeks. With respect to antiplatelet activities, data from in vitro and ex vivo human studies suggest that vitamin E can inhibit collagen-induced platelet activation and protein kinase C-dependent platelet aggregation. Clinically significant antiplatelet effects have not been consistently observed in published studies, particularly at dosages below 400 units/day. However, there have been isolated reports of excessive bleeding in surgical patients who had taken vitamin E regularly prior to surgery, and one controlled clinical trial found that supplementation with only 50 mg/day of vitamin E resulted in an increase in subarachnoid hemorrhage in male smokers aged 55 to 74 years (n=409). In a random sampling of that same population of male smokers, gingival bleeding was also more common in subjects who received vitamin E with aspirin compared to those who received either agent alone or neither.
+MANAGEMENT: Patients should consult a healthcare provider before taking any nutritional supplements like vitamin E. Close clinical and laboratory observation for hematologic complications may be appropriate when vitamin E supplementation at dosages greater than 400 units/day is initiated in patients stabilized on anticoagulant or antiplatelet therapy. The dose of the anticoagulant or antiplatelet drug may require adjustment during and after treatment with vitamin E. Patients should be advised to promptly report any signs of bleeding to their physician, including pain, swelling, headache, dizziness, weakness, prolonged bleeding from cuts, increased menstrual flow, vaginal bleeding, nosebleeds, bleeding of gums from brushing, unusual bleeding or bruising, red or brown urine, or red or black stools.</t>
+  </si>
+  <si>
+    <t>⛔️ SEVERITY LEVEL:  Moderate -
+MONITOR: Cephalosporins may potentiate the anticoagulant effects of vitamin K antagonists. Possible mechanisms include inhibited growth of vitamin K-producing intestinal bacteria, inhibited production of vitamin K-dependent clotting factors via a methylthiotetrazole (MTT) side chain (e.g., cefamandole, cefmetazole, cefoperazone, cefotetan), and/or inhibited platelet activity. Decreased prothrombin activity has been reported during treatment with various cephalosporins. Risk factors include renal or hepatic impairment, poor nutritional state, protracted antimicrobial therapy, and chronic anticoagulation therapy.
+MANAGEMENT: Prothrombin time and INR should be monitored and the patient closely observed for signs of bleeding. The anticoagulant dose may be adjusted as indicated. Patients should be advised to notify their physicians if they experience any signs or symptoms that may indicate excessive anticoagulation, such as unusual or prolonged bleeding, bruising, coffee ground emesis, change in stool or urine color, headache, dizziness, or weakness.</t>
+  </si>
+  <si>
+    <t>❗️ SEVERITY LEVEL: Minor -
+Limited data suggest that the anticoagulant effect of warfarin may be increased in patients also receiving acarbose. The International Normalization Ratio (INR) may increase out of the therapeutic range. The mechanism is not known, but may be related to increased absorption of warfarin. This interaction may occur with other oral anticoagulants although data is lacking. The clinician may consider closer INR and clinical monitoring in patients starting or stopping acarbose therapy while also receiving oral anticoagulants. The dose of the oral anticoagulant may need to be adjusted. Patients should be advised to promptly report any signs of bleeding to their physician, including pain, swelling, headache, dizziness, weakness, prolonged bleeding from cuts, increased menstrual flow, vaginal bleeding, nosebleeds, bleeding of gums from brushing, unusual bleeding or bruising, red or brown urine, or red or black stools.</t>
+  </si>
+  <si>
+    <t>❗️ SEVERITY LEVEL: Minor -
+Salicylates in anti-inflammatory dosages may blunt the diuretic and natriuretic response to loop diuretics. The interaction has been demonstrated in patients with ascites secondary to liver cirrhosis and in normal volunteers. Investigators theorize that salicylates may inhibit the renal effects of loop diuretics that are mediated by prostaglandins, including increases in sodium excretion, renal blood flow, and plasma renin activity. Since renal prostaglandins are believed to play a major role in the maintenance of renal blood flow and glomerular filtration rate in cirrhotics with ascites, the interaction may be particularly important in this population. No clinical interventions are generally required, but the possibility of a potential interaction should be considered in patients with ascites treated with a loop diuretic and salicylate or salicylate-related product.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -308,11 +407,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF202227"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202227"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -341,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -359,6 +463,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,20 +779,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F26DF76-20A1-2245-82DF-CAF32FC49C32}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="97.83203125" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="97.83203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,7 +804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="253" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="281" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -706,11 +812,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" ht="141" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="169" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -718,10 +823,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="113" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="141" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -729,10 +834,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="239" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="267" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -740,21 +845,21 @@
         <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="169" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="253" x14ac:dyDescent="0.2">
+      <c r="C6" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="281" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -762,10 +867,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="183" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="211" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -773,10 +878,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="346" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="372" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -784,10 +889,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="141" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="169" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -795,10 +900,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -806,10 +911,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="211" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="239" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -817,10 +922,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="183" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="211" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -828,10 +933,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="183" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="211" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
@@ -839,10 +944,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="141" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="169" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -850,10 +955,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="211" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="239" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -861,10 +966,10 @@
         <v>20</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="169" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="197" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -872,10 +977,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -883,10 +988,10 @@
         <v>21</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="150" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -894,10 +999,10 @@
         <v>22</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="165" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
@@ -905,10 +1010,10 @@
         <v>22</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="285" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="300" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -916,7 +1021,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="409.6" x14ac:dyDescent="0.2">
@@ -927,10 +1032,10 @@
         <v>25</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
@@ -938,10 +1043,10 @@
         <v>27</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="150" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="165" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -949,10 +1054,10 @@
         <v>28</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="90" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -960,10 +1065,10 @@
         <v>29</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="255" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -971,10 +1076,10 @@
         <v>30</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="165" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>32</v>
       </c>
@@ -982,10 +1087,10 @@
         <v>31</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="165" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -993,21 +1098,21 @@
         <v>33</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="99" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="359" x14ac:dyDescent="0.2">
+      <c r="C29" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="385" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -1015,10 +1120,10 @@
         <v>5</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="195" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="225" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -1026,10 +1131,10 @@
         <v>5</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="210" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="225" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -1037,7 +1142,106 @@
         <v>38</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>66</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="255" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="225" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="356" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="180" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="285" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
